--- a/excel/IFexercise.xlsx
+++ b/excel/IFexercise.xlsx
@@ -106,15 +106,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -148,16 +154,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,353 +474,360 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>101</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>120</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>150</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="1" t="str">
         <f>IF(C2&gt;=D2,"Target met","Target not met")</f>
         <v>Target not met</v>
       </c>
-      <c r="G2" s="2" t="str">
+      <c r="G2" s="1" t="str">
         <f>IF(AND(E2="North",C2&gt;200),"Eligabe","Not Eligable")</f>
         <v>Not Eligable</v>
       </c>
-      <c r="H2" s="2">
-        <f>IF(C2&gt;=200, C2*10%, IF(C2&gt;=150, C2*7%, C2*5%))</f>
-        <v>6</v>
-      </c>
-      <c r="I2" s="2">
+      <c r="H2" s="1" t="str">
+        <f>IF(C2&gt;=200, "10%", IF(C2&gt;=150, "7%", "5%"))</f>
+        <v>5%</v>
+      </c>
+      <c r="I2" s="1">
         <f>IF(C2&gt;=D2,C2*10%,C2*5%)</f>
         <v>6</v>
       </c>
-      <c r="J2" s="2" t="str">
+      <c r="J2" s="1" t="str">
         <f>IF(C2&gt;=200,"Excellent",IF(C2&gt;=150,"Good","Need Improvement"))</f>
         <v>Need Improvement</v>
       </c>
-      <c r="K2" s="2" t="str">
+      <c r="K2" s="1" t="str">
         <f>IF(C2&gt;200,"Heigh",IF(AND(C2&gt;=100,C2&lt;=200),"Medium",IF(C2&lt;100,"Low")))</f>
         <v>Medium</v>
       </c>
-      <c r="L2" s="2" t="str">
+      <c r="L2" s="1" t="str">
         <f>IF(AND(C2&gt;=150,E2="North"),"$500","$300")</f>
         <v>$300</v>
       </c>
-      <c r="M2" t="str">
-        <f>IF(C2&gt;=C2+C3+C4+C5+C6+C7*25%,"HIGH PERFORMER"," ")</f>
-        <v xml:space="preserve"> </v>
+      <c r="M2" s="2" t="str">
+        <f>IF(C2 &gt;= PERCENTILE($C$2:$C$7, 0.75), "High Performer", "Normal")</f>
+        <v>Normal</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>102</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>150</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>140</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="1" t="str">
         <f t="shared" ref="F3:F7" si="0">IF(C3&gt;=D3,"Target met","Target not met")</f>
         <v>Target met</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="1" t="str">
         <f t="shared" ref="G3:G7" si="1">IF(AND(E3="North",C3&gt;200),"Eligabe","Not Eligable")</f>
         <v>Not Eligable</v>
       </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H6" si="2">IF(C3&gt;=200, C3*10%, IF(C3&gt;=150, C3*7%, C3*5%))</f>
-        <v>10.500000000000002</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="H3" s="1" t="str">
+        <f t="shared" ref="H3:H7" si="2">IF(C3&gt;=200, "10%", IF(C3&gt;=150, "7%", "5%"))</f>
+        <v>7%</v>
+      </c>
+      <c r="I3" s="1">
         <f t="shared" ref="I3:I7" si="3">IF(C3&gt;=D3,C3*10%,C3*5%)</f>
         <v>15</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="J3" s="1" t="str">
         <f t="shared" ref="J3:J7" si="4">IF(C3&gt;=200,"Excellent",IF(C3&gt;=150,"Good","Need Improvement"))</f>
         <v>Good</v>
       </c>
-      <c r="K3" s="2" t="str">
+      <c r="K3" s="1" t="str">
         <f t="shared" ref="K3:K7" si="5">IF(C3&gt;200,"Heigh",IF(AND(C3&gt;=100,C3&lt;=200),"Medium",IF(C3&lt;100,"Low")))</f>
         <v>Medium</v>
       </c>
-      <c r="L3" s="2" t="str">
+      <c r="L3" s="1" t="str">
         <f t="shared" ref="L3:L7" si="6">IF(AND(C3&gt;=150,E3="North"),"$500","$300")</f>
         <v>$300</v>
       </c>
-      <c r="M3" t="str">
-        <f t="shared" ref="M3:M7" si="7">IF(C3&gt;=C3+C4+C5+C6+C7+C8*25%,"HIGH PERFORMER"," ")</f>
-        <v xml:space="preserve"> </v>
+      <c r="M3" s="2" t="str">
+        <f t="shared" ref="M3:M7" si="7">IF(C3 &gt;= PERCENTILE($C$2:$C$7, 0.75), "High Performer", "Normal")</f>
+        <v>Normal</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>103</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>200</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>200</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Target met</v>
       </c>
-      <c r="G4" s="2" t="str">
+      <c r="G4" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Not Eligable</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="I4" s="2">
+        <v>10%</v>
+      </c>
+      <c r="I4" s="1">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="J4" s="2" t="str">
+      <c r="J4" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Excellent</v>
       </c>
-      <c r="K4" s="2" t="str">
+      <c r="K4" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Medium</v>
       </c>
-      <c r="L4" s="2" t="str">
+      <c r="L4" s="1" t="str">
         <f t="shared" si="6"/>
         <v>$300</v>
       </c>
-      <c r="M4" t="str">
+      <c r="M4" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v>High Performer</v>
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>104</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>90</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>100</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2" t="str">
+      <c r="F5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Target not met</v>
       </c>
-      <c r="G5" s="2" t="str">
+      <c r="G5" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Not Eligable</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>4.5</v>
-      </c>
-      <c r="I5" s="2">
+        <v>5%</v>
+      </c>
+      <c r="I5" s="1">
         <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
-      <c r="J5" s="2" t="str">
+      <c r="J5" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Need Improvement</v>
       </c>
-      <c r="K5" s="2" t="str">
+      <c r="K5" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Low</v>
       </c>
-      <c r="L5" s="2" t="str">
+      <c r="L5" s="1" t="str">
         <f t="shared" si="6"/>
         <v>$300</v>
       </c>
-      <c r="M5" t="str">
+      <c r="M5" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v>Normal</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>105</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>220</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>210</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2" t="str">
+      <c r="F6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Target met</v>
       </c>
-      <c r="G6" s="2" t="str">
+      <c r="G6" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Eligabe</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I6" s="2">
+        <v>10%</v>
+      </c>
+      <c r="I6" s="1">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="J6" s="2" t="str">
+      <c r="J6" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Excellent</v>
       </c>
-      <c r="K6" s="2" t="str">
+      <c r="K6" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Heigh</v>
       </c>
-      <c r="L6" s="2" t="str">
+      <c r="L6" s="1" t="str">
         <f t="shared" si="6"/>
         <v>$500</v>
       </c>
-      <c r="M6" t="str">
+      <c r="M6" s="2" t="str">
         <f t="shared" si="7"/>
-        <v xml:space="preserve"> </v>
+        <v>High Performer</v>
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>106</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>130</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>160</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="2" t="str">
+      <c r="F7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Target not met</v>
       </c>
-      <c r="G7" s="2" t="str">
+      <c r="G7" s="1" t="str">
         <f t="shared" si="1"/>
         <v>Not Eligable</v>
       </c>
-      <c r="H7" s="2">
-        <f>IF(C7&gt;=200, C7*10%, IF(C7&gt;=150, C7*7%, C7*5%))</f>
-        <v>6.5</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>5%</v>
+      </c>
+      <c r="I7" s="1">
         <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
-      <c r="J7" s="2" t="str">
+      <c r="J7" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Need Improvement</v>
       </c>
-      <c r="K7" s="2" t="str">
+      <c r="K7" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Medium</v>
       </c>
-      <c r="L7" s="2" t="str">
+      <c r="L7" s="1" t="str">
         <f t="shared" si="6"/>
         <v>$300</v>
       </c>
-      <c r="M7" t="str">
+      <c r="M7" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>HIGH PERFORMER</v>
+        <v>Normal</v>
       </c>
     </row>
   </sheetData>
